--- a/ECIG Tabs.xlsx
+++ b/ECIG Tabs.xlsx
@@ -5,22 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryankim/Documents/DC/E-cigarettes/JUUL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryankim/Documents/DC/JUUL/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="3420" windowWidth="20180" windowHeight="12920" activeTab="5"/>
+    <workbookView xWindow="400" yWindow="680" windowWidth="26040" windowHeight="14020" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Ever Use" sheetId="3" r:id="rId1"/>
-    <sheet name="Current Use" sheetId="4" r:id="rId2"/>
-    <sheet name="8th Grade" sheetId="10" r:id="rId3"/>
-    <sheet name="10th Grade" sheetId="9" r:id="rId4"/>
-    <sheet name="12th Grade" sheetId="8" r:id="rId5"/>
-    <sheet name="Youth Use Trends" sheetId="2" r:id="rId6"/>
-    <sheet name="Why use" sheetId="1" r:id="rId7"/>
-    <sheet name="R" sheetId="6" r:id="rId8"/>
-    <sheet name="Sources" sheetId="5" r:id="rId9"/>
+    <sheet name="Update" sheetId="11" r:id="rId1"/>
+    <sheet name="What we Know" sheetId="13" r:id="rId2"/>
+    <sheet name="Youth Use Trends" sheetId="2" r:id="rId3"/>
+    <sheet name="Ever Use" sheetId="3" r:id="rId4"/>
+    <sheet name="Current Use" sheetId="4" r:id="rId5"/>
+    <sheet name="8th Grade" sheetId="10" r:id="rId6"/>
+    <sheet name="10th Grade" sheetId="9" r:id="rId7"/>
+    <sheet name="12th Grade" sheetId="8" r:id="rId8"/>
+    <sheet name="Brands" sheetId="12" r:id="rId9"/>
+    <sheet name="Why use" sheetId="1" r:id="rId10"/>
+    <sheet name="R" sheetId="6" r:id="rId11"/>
+    <sheet name="Sources" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="330">
   <si>
     <t>People important to me use</t>
   </si>
@@ -770,118 +773,360 @@
     <t>Could not find results "Some other brand" entries. Will look again to see if it's in the codebook.</t>
   </si>
   <si>
+    <t>Blu</t>
+  </si>
+  <si>
+    <t>MarkTen</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>VUSE</t>
+  </si>
+  <si>
+    <t>Finiti</t>
+  </si>
+  <si>
+    <t>Starbuzz</t>
+  </si>
+  <si>
+    <t>Fantasia</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Never Tried</t>
+  </si>
+  <si>
+    <t>Vapin Plus</t>
+  </si>
+  <si>
+    <t>eGo</t>
+  </si>
+  <si>
+    <t>Halo</t>
+  </si>
+  <si>
+    <t>Weighted % (past 30 day users)</t>
+  </si>
+  <si>
+    <t>0.61% *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Some past 30 day users said they never tried when asked about brands they have ever tried </t>
+  </si>
+  <si>
+    <t>Available in flavors I like</t>
+  </si>
+  <si>
+    <t>Can do tricks</t>
+  </si>
+  <si>
+    <t>Can use unnoticed</t>
+  </si>
+  <si>
+    <t>Cheaper than tobacco</t>
+  </si>
+  <si>
+    <t>Curious</t>
+  </si>
+  <si>
+    <t>Easier to get than tobacco</t>
+  </si>
+  <si>
+    <t>Friends and family use them</t>
+  </si>
+  <si>
+    <t>less harmful than tobacco</t>
+  </si>
+  <si>
+    <t>Perr pressured</t>
+  </si>
+  <si>
+    <t>People in TV and movies use them</t>
+  </si>
+  <si>
+    <t>To try to quit tobacco</t>
+  </si>
+  <si>
+    <t>Exact Questions, 30 Day Use</t>
+  </si>
+  <si>
+    <t>During the LAST 30 DAYS, on how many days (if any) have you used an electronic vaporizer such as an e-cigarette? </t>
+  </si>
+  <si>
+    <t>During the past 30 days, on how many days did you use e-cigarettes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the past 30 days, on how many days did you use electronic cigarettes or e-cigarettes? </t>
+  </si>
+  <si>
+    <t>Ever used an e-cigarette and have used in the past 30 days</t>
+  </si>
+  <si>
+    <t>Wave 4.5</t>
+  </si>
+  <si>
+    <t>Current (1 or more MORE DAYS in P30D) USE: ecigt</t>
+  </si>
+  <si>
+    <t>Used any electronic nicotine product within the past 30 days *
+*Electronic nicotine products include e-cigarettes, vape pens, personal vaporizers and mods, e-cigars, e-pipes, e-hookahs and hookah pens.</t>
+  </si>
+  <si>
+    <t>Just vaping nicotine, flavoring, JUUL (no marijuana)</t>
+  </si>
+  <si>
+    <t>2018/17</t>
+  </si>
+  <si>
+    <t>2019/18</t>
+  </si>
+  <si>
+    <t>2017/16</t>
+  </si>
+  <si>
+    <t>NYTS (Spring)</t>
+  </si>
+  <si>
+    <t>Analysis component</t>
+  </si>
+  <si>
+    <t>1. Basic facts</t>
+  </si>
+  <si>
+    <t>Fix up MTF tabs</t>
+  </si>
+  <si>
+    <t>Figure out time of year for MTF</t>
+  </si>
+  <si>
+    <t>Don't recall</t>
+  </si>
+  <si>
+    <t>JUUL</t>
+  </si>
+  <si>
+    <t>2. Causality</t>
+  </si>
+  <si>
+    <t>MTF (spoken)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   A. Ads v. Despair</t>
+  </si>
+  <si>
+    <t>Groups in the youth population</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - life prospects</t>
+  </si>
+  <si>
+    <t>Geographic models</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Geo data access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  B. Vaping substituting for combustibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  C. Transition to combustibles</t>
+  </si>
+  <si>
+    <t>Know about kids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Geographic (central city, rural, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Type of school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Expectations about future</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Life expectations</t>
+  </si>
+  <si>
+    <t>Race/ethnicity</t>
+  </si>
+  <si>
+    <t>Nielsen data</t>
+  </si>
+  <si>
+    <t>how much would it cost to buy?</t>
+  </si>
+  <si>
     <t>document page 229</t>
   </si>
   <si>
-    <t>Blu</t>
-  </si>
-  <si>
-    <t>MarkTen</t>
-  </si>
-  <si>
-    <t>Logic</t>
-  </si>
-  <si>
-    <t>VUSE</t>
-  </si>
-  <si>
-    <t>Finiti</t>
-  </si>
-  <si>
-    <t>Starbuzz</t>
-  </si>
-  <si>
-    <t>Fantasia</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Don't Know</t>
-  </si>
-  <si>
-    <t>Never Tried</t>
-  </si>
-  <si>
-    <t>Vapin Plus</t>
-  </si>
-  <si>
-    <t>eGo</t>
-  </si>
-  <si>
-    <t>Halo</t>
-  </si>
-  <si>
-    <t>Weighted % (past 30 day users)</t>
-  </si>
-  <si>
-    <t>0.61% *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Some past 30 day users said they never tried when asked about brands they have ever tried </t>
-  </si>
-  <si>
-    <t>Available in flavors I like</t>
-  </si>
-  <si>
-    <t>Can do tricks</t>
-  </si>
-  <si>
-    <t>Can use unnoticed</t>
-  </si>
-  <si>
-    <t>Cheaper than tobacco</t>
-  </si>
-  <si>
-    <t>Curious</t>
-  </si>
-  <si>
-    <t>Easier to get than tobacco</t>
-  </si>
-  <si>
-    <t>Friends and family use them</t>
-  </si>
-  <si>
-    <t>less harmful than tobacco</t>
-  </si>
-  <si>
-    <t>Perr pressured</t>
-  </si>
-  <si>
-    <t>People in TV and movies use them</t>
-  </si>
-  <si>
-    <t>To try to quit tobacco</t>
-  </si>
-  <si>
-    <t>NSDUH</t>
-  </si>
-  <si>
-    <t>Exact Questions, 30 Day Use</t>
-  </si>
-  <si>
-    <t>*Electronic nicotine products include e-cigarettes, vape pens, personal vaporizers and mods, e-cigars, e-pipes, e-hookahs and hookah pens.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On how many occasions (if any) have you vaped NICOTINE </t>
-  </si>
-  <si>
-    <t>During the LAST 30 DAYS, on how many days (if any) have you used an electronic vaporizer such as an e-cigarette? </t>
-  </si>
-  <si>
-    <t>During the past 30 days, on how many days did you use e-cigarettes?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">During the past 30 days, on how many days did you use electronic cigarettes or e-cigarettes? </t>
-  </si>
-  <si>
-    <t>Ever used an e-cigarette and have used in the past 30 days</t>
-  </si>
-  <si>
-    <t>Used any electronic nicotine product within the past 30 days *</t>
-  </si>
-  <si>
-    <t>Used an electronic nicotine product within the past 30 days</t>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Contacted, waiting for response</t>
+  </si>
+  <si>
+    <t>Large MSA (0,1)</t>
+  </si>
+  <si>
+    <t>MSA (0,1)</t>
+  </si>
+  <si>
+    <t>Region of school (NE,NC,S,W)</t>
+  </si>
+  <si>
+    <t>VRY HPY THS DAY</t>
+  </si>
+  <si>
+    <t>SATISFD W MYSELF</t>
+  </si>
+  <si>
+    <t>LIFE MEANINGLESS</t>
+  </si>
+  <si>
+    <t>ENJOY LIFE</t>
+  </si>
+  <si>
+    <t>FUTURE HOPELESS</t>
+  </si>
+  <si>
+    <t>GOOD TO BE ALIVE</t>
+  </si>
+  <si>
+    <t>FUTR R LIFE WRSE (How do you think your own life will go in the next few years)</t>
+  </si>
+  <si>
+    <t>POS ATT TWD SELF (I take a positive attitude toward myself)</t>
+  </si>
+  <si>
+    <t>AM PRSN OF WORTH</t>
+  </si>
+  <si>
+    <t>DO WELL AS OTHRS (I am able to do things as well as most other people)</t>
+  </si>
+  <si>
+    <t>MUCH TO B PROUD</t>
+  </si>
+  <si>
+    <t>I AM NO GOOD (Sometimes I think that I am no good at all)</t>
+  </si>
+  <si>
+    <t>I DO WRONG THING (I feel I can't do anything right)</t>
+  </si>
+  <si>
+    <t>MY LIFE NT USEFL (life not useful)</t>
+  </si>
+  <si>
+    <t>OFTN FEEL LONELY</t>
+  </si>
+  <si>
+    <t>KICK DO DANGR TH (get a real kick out of doing things that are a little dangerous)</t>
+  </si>
+  <si>
+    <t>OFT NOTHNG TO DO (often have nothing to do)</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>WHERE LIVE NOW (farm, country, citytown)</t>
+  </si>
+  <si>
+    <t>Mother and Father education level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Race </t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Census Region (NE,NC,S,W)</t>
+  </si>
+  <si>
+    <t>Grade performance</t>
+  </si>
+  <si>
+    <t>#X SEE DRUG SPTS (n recent months, about how often have you seen such anti-drug commercials on TV, or heard them on the radio?)</t>
+  </si>
+  <si>
+    <t>ADS-YOU &lt;TRY DRG (To what extent do you think such commercials have . . . made you less likely to use drugs?)</t>
+  </si>
+  <si>
+    <t>R WL DO VOC/TEC (How likely is it that you will go to a technical or vocational school after high school)</t>
+  </si>
+  <si>
+    <t>R WL GO TO CLG (How likely is it that you will go to college)</t>
+  </si>
+  <si>
+    <t>R WL DO ARMD (How likely is it that you will serve in armed forces)</t>
+  </si>
+  <si>
+    <t>R WL DO 4YR CLG (How likely is it that you will graduate from college)</t>
+  </si>
+  <si>
+    <t>I AM OFTEN BORED</t>
+  </si>
+  <si>
+    <t>MTF - vaping nicotine products</t>
+  </si>
+  <si>
+    <t>MTF - vaping only non-nicotine product</t>
+  </si>
+  <si>
+    <t>On how many occasions (if any) have you vaped NICOTINE or flavoring</t>
+  </si>
+  <si>
+    <t>DALY WEB FACEBK (How often do you visit social networking websites (like Facebook))</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>#HR/W COMPUTR SC</t>
+  </si>
+  <si>
+    <t>#HR/W INTERNET (Not counting work for school or a job, about how many hours a week do you spend on the Internet e-mailing, instant
+messaging, gaming, shopping, searching, downloading music, etc.?)</t>
+  </si>
+  <si>
+    <t>#HR/W GAMING (About how many hours a week do you spend playing electronic games on a computer, TV, phone, or other device?)</t>
+  </si>
+  <si>
+    <t>#HR/W SOCIAL NET WEB (About how many hours a week do you spend visiting social networking websites like Facebook?)</t>
+  </si>
+  <si>
+    <t># HR/W TEXT CELL - About how many hours a week do you spend texting on a cell phone?</t>
+  </si>
+  <si>
+    <t># HR/W TALK CELL - About how many hours a week do you spend talking on a cell phone?</t>
+  </si>
+  <si>
+    <t>#HR/W VIDEO CHAT - About how many hours a week do you spend video chatting (Skype, etc.)?</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>C07 AFTER SCHL ALONE - On average, how much time do you spend after school each day at home with no adult present? (Count the hours between the end of school and when you go to bed.)</t>
+  </si>
+  <si>
+    <t>#X OUT W/O PRNT - During a typical week, on how many evenings do you go out for fun and recreation?</t>
   </si>
 </sst>
 </file>
@@ -1033,31 +1278,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1068,6 +1288,26 @@
       <color rgb="FF333333"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1084,7 +1324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1158,16 +1398,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1308,19 +1561,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1331,15 +1571,61 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1350,14 +1636,16 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1722,6 +2010,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1847,27 +2136,33 @@
             <c:numRef>
               <c:f>'Youth Use Trends'!$B$29:$N$29</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="6" formatCode="0.00%">
+                <c:pt idx="4">
+                  <c:v>0.0082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0147</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.0185</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00%">
+                <c:pt idx="7">
                   <c:v>0.0542</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00%">
+                <c:pt idx="8">
                   <c:v>0.0833</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00%">
+                <c:pt idx="9">
                   <c:v>0.0666</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.00%">
+                <c:pt idx="10">
                   <c:v>0.0532</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0.00%">
+                <c:pt idx="11">
                   <c:v>0.075</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="0.00%">
+                <c:pt idx="12">
                   <c:v>0.1609</c:v>
                 </c:pt>
               </c:numCache>
@@ -1889,7 +2184,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MTF</c:v>
+                  <c:v>MTF - vaping nicotine products</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1922,25 +2217,25 @@
             <c:numRef>
               <c:f>'Youth Use Trends'!$B$33:$N$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="7" formatCode="0.00%">
+                <c:pt idx="7">
                   <c:v>0.0869</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0%">
+                <c:pt idx="8">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00%">
+                <c:pt idx="9">
                   <c:v>0.0627</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.00%">
-                  <c:v>0.066</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00%">
-                  <c:v>0.104</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00%">
-                  <c:v>0.122</c:v>
+                <c:pt idx="10">
+                  <c:v>0.0623</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0947</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,19 +2289,22 @@
             <c:numRef>
               <c:f>'Youth Use Trends'!$B$24:$N$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="7" formatCode="0.00%">
+                <c:pt idx="7">
                   <c:v>0.0114</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00%">
+                <c:pt idx="8">
                   <c:v>0.012</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00%">
+                <c:pt idx="9">
                   <c:v>0.0155</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.00%">
+                <c:pt idx="10">
                   <c:v>0.0132</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,11 +2326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-166335456"/>
-        <c:axId val="-186003088"/>
+        <c:axId val="-312267696"/>
+        <c:axId val="-312266480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-166335456"/>
+        <c:axId val="-312267696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,7 +2373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-186003088"/>
+        <c:crossAx val="-312266480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2083,7 +2381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-186003088"/>
+        <c:axId val="-312266480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2135,7 +2433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-166335456"/>
+        <c:crossAx val="-312267696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2149,6 +2447,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2382,27 +2681,33 @@
             <c:numRef>
               <c:f>'Youth Use Trends'!$B$30:$N$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="6" formatCode="0.00%">
+                <c:pt idx="4">
+                  <c:v>0.0162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0294</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.0379</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00%">
+                <c:pt idx="7">
                   <c:v>0.1303</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00%">
+                <c:pt idx="8">
                   <c:v>0.1539</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00%">
+                <c:pt idx="9">
                   <c:v>0.1234</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.00%">
+                <c:pt idx="10">
                   <c:v>0.1162</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0.00%">
+                <c:pt idx="11">
                   <c:v>0.1911</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="0.00%">
+                <c:pt idx="12">
                   <c:v>0.257</c:v>
                 </c:pt>
               </c:numCache>
@@ -2424,7 +2729,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MTF</c:v>
+                  <c:v>MTF - vaping nicotine products</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2457,24 +2762,24 @@
             <c:numRef>
               <c:f>'Youth Use Trends'!$B$34:$N$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="7" formatCode="0.00%">
-                  <c:v>0.1629</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00%">
+                <c:pt idx="7">
+                  <c:v>0.1241</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.1387</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00%">
+                <c:pt idx="9">
                   <c:v>0.1037</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.00%">
-                  <c:v>0.131</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00%">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00%">
+                <c:pt idx="10">
+                  <c:v>0.1156</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1969</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -2529,19 +2834,22 @@
             <c:numRef>
               <c:f>'Youth Use Trends'!$B$25:$N$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="7" formatCode="0.00%">
+                <c:pt idx="7">
                   <c:v>0.0487</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00%">
+                <c:pt idx="8">
                   <c:v>0.0426</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00%">
+                <c:pt idx="9">
                   <c:v>0.0314</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.00%">
+                <c:pt idx="10">
                   <c:v>0.0487</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2563,11 +2871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-185059264"/>
-        <c:axId val="-185056784"/>
+        <c:axId val="-312226208"/>
+        <c:axId val="-312223728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-185059264"/>
+        <c:axId val="-312226208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,7 +2918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-185056784"/>
+        <c:crossAx val="-312223728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2618,7 +2926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-185056784"/>
+        <c:axId val="-312223728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2670,7 +2978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-185059264"/>
+        <c:crossAx val="-312226208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2922,27 +3230,33 @@
             <c:numRef>
               <c:f>'Youth Use Trends'!$B$31:$N$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="6" formatCode="0.00%">
+                <c:pt idx="4">
+                  <c:v>0.0153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0342</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.0575</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00%">
+                <c:pt idx="7">
                   <c:v>0.1493</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00%">
+                <c:pt idx="8">
                   <c:v>0.1972</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00%">
+                <c:pt idx="9">
                   <c:v>0.1389</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.00%">
+                <c:pt idx="10">
                   <c:v>0.1531</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0.00%">
+                <c:pt idx="11">
                   <c:v>0.247</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="0.00%">
+                <c:pt idx="12">
                   <c:v>0.3441</c:v>
                 </c:pt>
               </c:numCache>
@@ -2964,7 +3278,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MTF</c:v>
+                  <c:v>MTF - vaping nicotine products</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2997,24 +3311,24 @@
             <c:numRef>
               <c:f>'Youth Use Trends'!$B$35:$N$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="7" formatCode="0.0%">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.0%">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.0%">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00%">
-                  <c:v>0.166</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00%">
-                  <c:v>0.267</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00%">
+                <c:pt idx="7">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1527</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2471</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.309</c:v>
                 </c:pt>
               </c:numCache>
@@ -3069,19 +3383,22 @@
             <c:numRef>
               <c:f>'Youth Use Trends'!$B$26:$N$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="7" formatCode="0.00%">
+                <c:pt idx="7">
                   <c:v>0.0585</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00%">
+                <c:pt idx="8">
                   <c:v>0.0754</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00%">
+                <c:pt idx="9">
                   <c:v>0.0781</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.00%">
+                <c:pt idx="10">
                   <c:v>0.0836</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3103,11 +3420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-185941344"/>
-        <c:axId val="-185938864"/>
+        <c:axId val="-336207936"/>
+        <c:axId val="-336206576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-185941344"/>
+        <c:axId val="-336207936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3150,7 +3467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-185938864"/>
+        <c:crossAx val="-336206576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3158,7 +3475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-185938864"/>
+        <c:axId val="-336206576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3209,7 +3526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-185941344"/>
+        <c:crossAx val="-336207936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4924,7 +5241,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="46" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="94" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4935,7 +5252,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="46" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="94" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4946,7 +5263,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="94" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5055,7 +5372,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="19526250" cy="14192250"/>
+    <xdr:ext cx="8673830" cy="6282447"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5088,7 +5405,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="19526250" cy="14192250"/>
+    <xdr:ext cx="8673830" cy="6282447"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5121,7 +5438,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="8673830" cy="6282447"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5466,10 +5783,1736 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="81"/>
+      <c r="B9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="81"/>
+      <c r="B15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B27" s="82" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B28" s="82" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B29" s="82" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B30" s="82" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>327</v>
+      </c>
+      <c r="B31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>274</v>
+      </c>
+      <c r="B42" t="s">
+        <v>300</v>
+      </c>
+      <c r="C42" t="s">
+        <v>300</v>
+      </c>
+      <c r="D42" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>304</v>
+      </c>
+      <c r="C43" t="s">
+        <v>305</v>
+      </c>
+      <c r="D43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>301</v>
+      </c>
+      <c r="C44" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="B48" s="82" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>219</v>
+      </c>
+      <c r="B54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:U50"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="109" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+    </row>
+    <row r="3" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2007</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2008</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2009</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2010</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2011</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2012</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2013</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2014</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2015</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2016</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="9">
+        <v>2018</v>
+      </c>
+      <c r="N3" s="9">
+        <v>2019</v>
+      </c>
+      <c r="O3" s="15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+    </row>
+    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="J5" s="52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K5" s="52">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="L5" s="52">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="M5" s="65">
+        <v>5.96E-2</v>
+      </c>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="52">
+        <v>0.1391</v>
+      </c>
+      <c r="J6" s="52">
+        <v>0.1875</v>
+      </c>
+      <c r="K6" s="52">
+        <v>0.2099</v>
+      </c>
+      <c r="L6" s="52">
+        <v>0.1976</v>
+      </c>
+      <c r="M6" s="65">
+        <v>0.214</v>
+      </c>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="52">
+        <v>0.19320000000000001</v>
+      </c>
+      <c r="J7" s="52">
+        <v>0.253</v>
+      </c>
+      <c r="K7" s="52">
+        <v>0.2944</v>
+      </c>
+      <c r="L7" s="51">
+        <v>0.26690000000000003</v>
+      </c>
+      <c r="M7" s="65">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51">
+        <v>0.107</v>
+      </c>
+      <c r="J8" s="51">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="K8" s="51">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="L8" s="51">
+        <v>0.14829999999999999</v>
+      </c>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="65">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="G10" s="65">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="H10" s="51">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="I10" s="51">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="J10" s="51">
+        <v>0.2024</v>
+      </c>
+      <c r="K10" s="51">
+        <v>0.18559999999999999</v>
+      </c>
+      <c r="L10" s="51">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="M10" s="53">
+        <v>0.182</v>
+      </c>
+      <c r="N10" s="51">
+        <v>0.29370000000000002</v>
+      </c>
+      <c r="O10" s="50"/>
+      <c r="P10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="65">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="G11" s="65">
+        <v>9.4E-2</v>
+      </c>
+      <c r="H11" s="51">
+        <v>0.1036</v>
+      </c>
+      <c r="I11" s="51">
+        <v>0.2596</v>
+      </c>
+      <c r="J11" s="51">
+        <v>0.37540000000000001</v>
+      </c>
+      <c r="K11" s="51">
+        <v>0.30409999999999998</v>
+      </c>
+      <c r="L11" s="53">
+        <v>0.28839999999999999</v>
+      </c>
+      <c r="M11" s="53">
+        <v>0.3478</v>
+      </c>
+      <c r="N11" s="51">
+        <v>0.45540000000000003</v>
+      </c>
+      <c r="O11" s="50"/>
+    </row>
+    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="65">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="G12" s="65">
+        <v>0.1258</v>
+      </c>
+      <c r="H12" s="66">
+        <v>0.15920000000000001</v>
+      </c>
+      <c r="I12" s="55">
+        <v>0.31</v>
+      </c>
+      <c r="J12" s="51">
+        <v>0.44690000000000002</v>
+      </c>
+      <c r="K12" s="51">
+        <v>0.37190000000000001</v>
+      </c>
+      <c r="L12" s="51">
+        <v>0.35389999999999999</v>
+      </c>
+      <c r="M12" s="54"/>
+      <c r="N12" s="51">
+        <v>0.54820000000000002</v>
+      </c>
+      <c r="O12" s="50"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+    </row>
+    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51">
+        <v>0.106</v>
+      </c>
+      <c r="M14" s="53"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="50"/>
+    </row>
+    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51">
+        <v>0.214</v>
+      </c>
+      <c r="M15" s="51">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="N15" s="51">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="O15" s="50"/>
+    </row>
+    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="L16" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="M16" s="55">
+        <v>0.34</v>
+      </c>
+      <c r="N16" s="51">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="O16" s="50"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+    </row>
+    <row r="21" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+    </row>
+    <row r="22" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="9">
+        <v>2007</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2008</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2009</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2010</v>
+      </c>
+      <c r="F22" s="9">
+        <v>2011</v>
+      </c>
+      <c r="G22" s="9">
+        <v>2012</v>
+      </c>
+      <c r="H22" s="9">
+        <v>2013</v>
+      </c>
+      <c r="I22" s="9">
+        <v>2014</v>
+      </c>
+      <c r="J22" s="9">
+        <v>2015</v>
+      </c>
+      <c r="K22" s="9">
+        <v>2016</v>
+      </c>
+      <c r="L22" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M22" s="9">
+        <v>2018</v>
+      </c>
+      <c r="N22" s="9">
+        <v>2019</v>
+      </c>
+      <c r="O22" s="15">
+        <v>2020</v>
+      </c>
+      <c r="P22" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q22" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="R22" s="75" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="70">
+        <v>1.14E-2</v>
+      </c>
+      <c r="J24" s="70">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K24" s="70">
+        <v>1.55E-2</v>
+      </c>
+      <c r="L24" s="70">
+        <v>1.32E-2</v>
+      </c>
+      <c r="M24" s="68">
+        <v>1.9E-2</v>
+      </c>
+      <c r="N24" s="68"/>
+      <c r="O24" s="67"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="70">
+        <v>4.87E-2</v>
+      </c>
+      <c r="J25" s="70">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="K25" s="70">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="L25" s="70">
+        <v>4.87E-2</v>
+      </c>
+      <c r="M25" s="68">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="N25" s="68"/>
+      <c r="O25" s="67"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="70">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="J26" s="70">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="K26" s="70">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="L26" s="70">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="M26" s="68">
+        <v>0.124</v>
+      </c>
+      <c r="N26" s="68"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="76">
+        <f>L26/K26</f>
+        <v>1.0704225352112675</v>
+      </c>
+      <c r="Q26" s="76">
+        <f>M26/L26</f>
+        <v>1.4832535885167466</v>
+      </c>
+      <c r="R26" s="76"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="70">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J27" s="70">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="K27" s="70">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L27" s="70">
+        <v>4.24E-2</v>
+      </c>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="67"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="67"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="G29" s="68">
+        <v>1.47E-2</v>
+      </c>
+      <c r="H29" s="71">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="I29" s="71">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="J29" s="71">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="K29" s="71">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="L29" s="71">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="M29" s="72">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N29" s="72">
+        <v>0.16089999999999999</v>
+      </c>
+      <c r="O29" s="67"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="G30" s="68">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="H30" s="71">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="I30" s="71">
+        <v>0.1303</v>
+      </c>
+      <c r="J30" s="71">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="K30" s="71">
+        <v>0.1234</v>
+      </c>
+      <c r="L30" s="71">
+        <v>0.1162</v>
+      </c>
+      <c r="M30" s="72">
+        <v>0.19109999999999999</v>
+      </c>
+      <c r="N30" s="72">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="O30" s="67"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="G31" s="68">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="H31" s="71">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="I31" s="71">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="J31" s="71">
+        <v>0.19719999999999999</v>
+      </c>
+      <c r="K31" s="71">
+        <v>0.1389</v>
+      </c>
+      <c r="L31" s="71">
+        <v>0.15310000000000001</v>
+      </c>
+      <c r="M31" s="72">
+        <v>0.247</v>
+      </c>
+      <c r="N31" s="72">
+        <v>0.34410000000000002</v>
+      </c>
+      <c r="O31" s="67"/>
+      <c r="P31" s="76">
+        <f>L31/K31</f>
+        <v>1.1022318214542839</v>
+      </c>
+      <c r="Q31" s="76">
+        <f>M31/L31</f>
+        <v>1.613324624428478</v>
+      </c>
+      <c r="R31" s="76">
+        <f>N31/M31</f>
+        <v>1.3931174089068827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>315</v>
+      </c>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="67"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="J33" s="71">
+        <v>0.08</v>
+      </c>
+      <c r="K33" s="71">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="L33" s="73">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="M33" s="74">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="N33" s="73">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="O33" s="67"/>
+      <c r="P33" t="s">
+        <v>247</v>
+      </c>
+      <c r="U33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71">
+        <v>0.1241</v>
+      </c>
+      <c r="J34" s="71">
+        <v>0.13869999999999999</v>
+      </c>
+      <c r="K34" s="71">
+        <v>0.1037</v>
+      </c>
+      <c r="L34" s="73">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="M34" s="73">
+        <v>0.19689999999999999</v>
+      </c>
+      <c r="N34" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="O34" s="67"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="80">
+        <v>0.156</v>
+      </c>
+      <c r="J35" s="80">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="K35" s="71">
+        <v>0.1229</v>
+      </c>
+      <c r="L35" s="73">
+        <v>0.1527</v>
+      </c>
+      <c r="M35" s="79">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="N35" s="73">
+        <v>0.309</v>
+      </c>
+      <c r="O35" s="67"/>
+      <c r="P35" s="76">
+        <f>L35/K35</f>
+        <v>1.2424735557363711</v>
+      </c>
+      <c r="Q35" s="76">
+        <f>M35/L35</f>
+        <v>1.6182056319580875</v>
+      </c>
+      <c r="R35" s="76">
+        <f>N35/M35</f>
+        <v>1.2505058680696075</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>316</v>
+      </c>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="76"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="76"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="76"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="76"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="76"/>
+      <c r="Q39" s="76"/>
+      <c r="R39" s="76"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" s="48"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="76"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" s="48"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="76"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B42" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="86"/>
+    </row>
+    <row r="43" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="9">
+        <v>2007</v>
+      </c>
+      <c r="C43" s="9">
+        <v>2008</v>
+      </c>
+      <c r="D43" s="9">
+        <v>2009</v>
+      </c>
+      <c r="E43" s="9">
+        <v>2010</v>
+      </c>
+      <c r="F43" s="9">
+        <v>2011</v>
+      </c>
+      <c r="G43" s="9">
+        <v>2012</v>
+      </c>
+      <c r="H43" s="9">
+        <v>2013</v>
+      </c>
+      <c r="I43" s="9">
+        <v>2014</v>
+      </c>
+      <c r="J43" s="9">
+        <v>2015</v>
+      </c>
+      <c r="K43" s="9">
+        <v>2016</v>
+      </c>
+      <c r="L43" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M43" s="9">
+        <v>2018</v>
+      </c>
+      <c r="N43" s="9">
+        <v>2019</v>
+      </c>
+      <c r="O43" s="61">
+        <v>2020</v>
+      </c>
+      <c r="Q43" s="80"/>
+    </row>
+    <row r="44" spans="1:21" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="G44" s="87"/>
+      <c r="H44" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44" s="87" t="s">
+        <v>241</v>
+      </c>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="80"/>
+    </row>
+    <row r="45" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+    </row>
+    <row r="46" spans="1:21" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="I46" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="83" t="s">
+        <v>317</v>
+      </c>
+      <c r="M46" s="83"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+    </row>
+    <row r="47" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+    </row>
+    <row r="48" spans="1:21" ht="100.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="64"/>
+      <c r="I48" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="L48" s="84"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="62"/>
+    </row>
+    <row r="49" spans="8:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+    </row>
+    <row r="50" spans="8:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B42:O42"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="I44:N44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="64" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5953,6 +7996,14 @@
         <v>172</v>
       </c>
     </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" t="s">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5963,12 +8014,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="87" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScale="75" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6376,1754 +8427,627 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q82"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+    </row>
     <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-    </row>
-    <row r="3" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B2" s="9">
         <v>2007</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C2" s="9">
         <v>2008</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D2" s="9">
         <v>2009</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E2" s="9">
         <v>2010</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F2" s="9">
         <v>2011</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G2" s="9">
         <v>2012</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H2" s="9">
         <v>2013</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I2" s="9">
         <v>2014</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J2" s="9">
         <v>2015</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K2" s="9">
         <v>2016</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L2" s="9">
         <v>2017</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M2" s="9">
         <v>2018</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N2" s="9">
         <v>2019</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O2" s="15">
         <v>2020</v>
       </c>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+    </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-    </row>
-    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51">
-        <v>5.0299999999999997E-2</v>
-      </c>
-      <c r="J5" s="52">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K5" s="52">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="L5" s="52">
-        <v>5.8400000000000001E-2</v>
-      </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="52">
-        <v>0.1391</v>
-      </c>
-      <c r="J6" s="52">
-        <v>0.1875</v>
-      </c>
-      <c r="K6" s="52">
-        <v>0.2099</v>
-      </c>
-      <c r="L6" s="52">
-        <v>0.1976</v>
-      </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="57"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="57"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="52">
-        <v>0.19320000000000001</v>
-      </c>
-      <c r="J7" s="52">
-        <v>0.253</v>
-      </c>
-      <c r="K7" s="52">
-        <v>0.2944</v>
-      </c>
-      <c r="L7" s="51">
-        <v>0.26690000000000003</v>
-      </c>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
+        <v>38</v>
+      </c>
+      <c r="L7" s="49">
+        <v>0.33850000000000002</v>
+      </c>
+      <c r="M7" s="49">
+        <v>0.37</v>
+      </c>
       <c r="P7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51">
-        <v>0.107</v>
-      </c>
-      <c r="J8" s="51">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="K8" s="51">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="L8" s="51">
-        <v>0.14829999999999999</v>
-      </c>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
+        <v>207</v>
+      </c>
+      <c r="L8" s="49">
+        <v>0.1482</v>
+      </c>
       <c r="P8" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" s="49">
+        <v>0.14030000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="49">
+        <v>5.9299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="49">
+        <v>5.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="L12" s="49">
+        <v>4.4699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="49"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="L14" s="49"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L15" s="49"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51">
-        <v>4.7300000000000002E-2</v>
-      </c>
-      <c r="I10" s="51">
-        <v>0.14069999999999999</v>
-      </c>
-      <c r="J10" s="51">
-        <v>0.2024</v>
-      </c>
-      <c r="K10" s="51">
-        <v>0.18559999999999999</v>
-      </c>
-      <c r="L10" s="51">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="M10" s="53">
-        <v>0.182</v>
-      </c>
-      <c r="N10" s="51">
-        <v>0.29370000000000002</v>
-      </c>
-      <c r="O10" s="50"/>
-      <c r="P10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51">
-        <v>0.1036</v>
-      </c>
-      <c r="I11" s="51">
-        <v>0.2596</v>
-      </c>
-      <c r="J11" s="51">
-        <v>0.37540000000000001</v>
-      </c>
-      <c r="K11" s="51">
-        <v>0.30409999999999998</v>
-      </c>
-      <c r="L11" s="53">
-        <v>0.28839999999999999</v>
-      </c>
-      <c r="M11" s="53">
-        <v>0.3478</v>
-      </c>
-      <c r="N11" s="51">
-        <v>0.45540000000000003</v>
-      </c>
-      <c r="O11" s="50"/>
-    </row>
-    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55">
-        <v>0.31</v>
-      </c>
-      <c r="J12" s="51">
-        <v>0.44690000000000002</v>
-      </c>
-      <c r="K12" s="51">
-        <v>0.37190000000000001</v>
-      </c>
-      <c r="L12" s="51">
-        <v>0.35389999999999999</v>
-      </c>
-      <c r="M12" s="54"/>
-      <c r="N12" s="51">
-        <v>0.54820000000000002</v>
-      </c>
-      <c r="O12" s="50"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B16" s="5">
+        <v>2015</v>
+      </c>
+      <c r="D16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2016</v>
+      </c>
+      <c r="H16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="59"/>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18">
+        <v>6894</v>
+      </c>
+      <c r="C18">
+        <v>5852</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="49">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="F18">
+        <v>8291</v>
+      </c>
+      <c r="G18">
+        <v>7472</v>
+      </c>
+      <c r="H18" s="49">
+        <v>2.52E-2</v>
+      </c>
+      <c r="I18" s="49">
+        <v>1.2699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19">
         <v>199</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-    </row>
-    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51">
-        <v>0.106</v>
-      </c>
-      <c r="M14" s="53"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="50"/>
-    </row>
-    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51">
-        <v>0.214</v>
-      </c>
-      <c r="M15" s="51">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="N15" s="51">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="O15" s="50"/>
-    </row>
-    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="55">
-        <v>0.25</v>
-      </c>
-      <c r="L16" s="55">
-        <v>0.25</v>
-      </c>
-      <c r="M16" s="55">
-        <v>0.34</v>
-      </c>
-      <c r="N16" s="51">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="O16" s="50"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-    </row>
-    <row r="21" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-    </row>
-    <row r="22" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="9">
-        <v>2007</v>
-      </c>
-      <c r="C22" s="9">
-        <v>2008</v>
-      </c>
-      <c r="D22" s="9">
-        <v>2009</v>
-      </c>
-      <c r="E22" s="9">
-        <v>2010</v>
-      </c>
-      <c r="F22" s="9">
-        <v>2011</v>
-      </c>
-      <c r="G22" s="9">
-        <v>2012</v>
-      </c>
-      <c r="H22" s="9">
-        <v>2013</v>
-      </c>
-      <c r="I22" s="9">
-        <v>2014</v>
-      </c>
-      <c r="J22" s="9">
-        <v>2015</v>
-      </c>
-      <c r="K22" s="9">
-        <v>2016</v>
-      </c>
-      <c r="L22" s="9">
-        <v>2017</v>
-      </c>
-      <c r="M22" s="9">
-        <v>2018</v>
-      </c>
-      <c r="N22" s="9">
-        <v>2019</v>
-      </c>
-      <c r="O22" s="15">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C19">
+        <v>416</v>
+      </c>
+      <c r="D19" s="49">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="E19" s="49">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="F19">
+        <v>181</v>
+      </c>
+      <c r="G19">
+        <v>353</v>
+      </c>
+      <c r="H19" s="49">
+        <v>0.1178</v>
+      </c>
+      <c r="I19" s="49">
+        <v>6.6900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>43</v>
+      </c>
+      <c r="D20" s="49">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E20" s="49">
+        <v>1.17E-2</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>26</v>
+      </c>
+      <c r="H20" s="49">
+        <v>1.89E-2</v>
+      </c>
+      <c r="I20" s="49">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21" s="49">
+        <v>0</v>
+      </c>
+      <c r="E21" s="49">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+      <c r="H21" s="49">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="I21" s="49">
+        <v>7.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22" s="49">
+        <v>2.52E-2</v>
+      </c>
+      <c r="E22" s="49">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>39</v>
+      </c>
+      <c r="H22" s="49">
+        <v>2.29E-2</v>
+      </c>
+      <c r="I22" s="49">
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23">
+        <v>81</v>
+      </c>
+      <c r="C23">
+        <v>191</v>
+      </c>
+      <c r="D23" s="49">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="E23" s="49">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>162</v>
+      </c>
+      <c r="H23" s="49">
+        <v>8.14E-2</v>
+      </c>
+      <c r="I23" s="49">
+        <v>4.58E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24" s="49">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="E24" s="49">
+        <v>6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>83</v>
+      </c>
+      <c r="D25" s="49">
+        <v>2.76E-2</v>
+      </c>
+      <c r="E25" s="49">
+        <v>2.87E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26">
         <v>34</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-    </row>
-    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="56">
-        <v>1.14E-2</v>
-      </c>
-      <c r="J24" s="56">
-        <v>1.2E-2</v>
-      </c>
-      <c r="K24" s="56">
-        <v>1.55E-2</v>
-      </c>
-      <c r="L24" s="56">
-        <v>1.32E-2</v>
-      </c>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-    </row>
-    <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="56">
-        <v>4.87E-2</v>
-      </c>
-      <c r="J25" s="56">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="K25" s="56">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="L25" s="56">
-        <v>4.87E-2</v>
-      </c>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-    </row>
-    <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="56">
-        <v>5.8500000000000003E-2</v>
-      </c>
-      <c r="J26" s="56">
-        <v>7.5399999999999995E-2</v>
-      </c>
-      <c r="K26" s="56">
-        <v>7.8100000000000003E-2</v>
-      </c>
-      <c r="L26" s="56">
-        <v>8.3599999999999994E-2</v>
-      </c>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-    </row>
-    <row r="27" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>85</v>
+      </c>
+      <c r="D26" s="49">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="E26" s="49">
+        <v>3.1200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="56">
-        <v>3.1E-2</v>
-      </c>
-      <c r="J27" s="56">
-        <v>3.6600000000000001E-2</v>
-      </c>
-      <c r="K27" s="56">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="L27" s="56">
-        <v>4.24E-2</v>
-      </c>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-    </row>
-    <row r="29" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="F27">
+        <v>82</v>
+      </c>
+      <c r="G27">
+        <v>182</v>
+      </c>
+      <c r="H27" s="49">
+        <v>0.1065</v>
+      </c>
+      <c r="I27" s="49">
+        <v>7.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28">
+        <v>43</v>
+      </c>
+      <c r="G28">
+        <v>120</v>
+      </c>
+      <c r="H28" s="49">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="I28" s="49">
+        <v>4.8099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="51">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="I29" s="51">
-        <v>5.4199999999999998E-2</v>
-      </c>
-      <c r="J29" s="51">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="K29" s="51">
-        <v>6.6600000000000006E-2</v>
-      </c>
-      <c r="L29" s="51">
-        <v>5.3199999999999997E-2</v>
-      </c>
-      <c r="M29" s="53">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="N29" s="53">
-        <v>0.16089999999999999</v>
-      </c>
-      <c r="O29" s="50"/>
-    </row>
-    <row r="30" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="F29">
+        <v>41</v>
+      </c>
+      <c r="G29">
+        <v>54</v>
+      </c>
+      <c r="H29" s="49">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="I29" s="49">
+        <v>2.3900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="I30" s="51">
-        <v>0.1303</v>
-      </c>
-      <c r="J30" s="51">
-        <v>0.15390000000000001</v>
-      </c>
-      <c r="K30" s="51">
-        <v>0.1234</v>
-      </c>
-      <c r="L30" s="51">
-        <v>0.1162</v>
-      </c>
-      <c r="M30" s="53">
-        <v>0.19109999999999999</v>
-      </c>
-      <c r="N30" s="53">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="O30" s="50"/>
-    </row>
-    <row r="31" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="B30">
+        <v>223</v>
+      </c>
+      <c r="C30">
+        <v>787</v>
+      </c>
+      <c r="D30" s="49">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="E30" s="49">
+        <v>0.36880000000000002</v>
+      </c>
+      <c r="F30">
+        <v>186</v>
+      </c>
+      <c r="G30">
+        <v>655</v>
+      </c>
+      <c r="H30" s="49">
+        <v>0.22009999999999999</v>
+      </c>
+      <c r="I30" s="49">
+        <v>0.34860000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="51">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="I31" s="51">
-        <v>0.14929999999999999</v>
-      </c>
-      <c r="J31" s="51">
-        <v>0.19719999999999999</v>
-      </c>
-      <c r="K31" s="51">
-        <v>0.1389</v>
-      </c>
-      <c r="L31" s="51">
-        <v>0.15310000000000001</v>
-      </c>
-      <c r="M31" s="53">
-        <v>0.247</v>
-      </c>
-      <c r="N31" s="53">
-        <v>0.34410000000000002</v>
-      </c>
-      <c r="O31" s="50"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31">
+        <v>577</v>
+      </c>
+      <c r="C31">
+        <v>1807</v>
+      </c>
+      <c r="D31" s="49">
+        <v>0.36940000000000001</v>
+      </c>
+      <c r="E31" s="49">
+        <v>0.378</v>
+      </c>
+      <c r="F31">
+        <v>591</v>
+      </c>
+      <c r="G31">
+        <v>1691</v>
+      </c>
+      <c r="H31" s="49">
+        <v>0.30380000000000001</v>
+      </c>
+      <c r="I31" s="49">
+        <v>0.35160000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>199</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-    </row>
-    <row r="33" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51">
-        <v>8.6900000000000005E-2</v>
-      </c>
-      <c r="J33" s="55">
-        <v>0.08</v>
-      </c>
-      <c r="K33" s="51">
-        <v>6.2700000000000006E-2</v>
-      </c>
-      <c r="L33" s="58">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="M33" s="60">
-        <v>0.104</v>
-      </c>
-      <c r="N33" s="58">
-        <v>0.122</v>
-      </c>
-      <c r="O33" s="50"/>
-      <c r="P33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51">
-        <v>0.16289999999999999</v>
-      </c>
-      <c r="J34" s="51">
-        <v>0.13869999999999999</v>
-      </c>
-      <c r="K34" s="51">
-        <v>0.1037</v>
-      </c>
-      <c r="L34" s="58">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="M34" s="58">
-        <v>0.217</v>
-      </c>
-      <c r="N34" s="58">
-        <v>0.25</v>
-      </c>
-      <c r="O34" s="50"/>
-    </row>
-    <row r="35" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="57">
-        <v>0.17</v>
-      </c>
-      <c r="J35" s="57">
-        <v>0.16</v>
-      </c>
-      <c r="K35" s="57">
-        <v>0.13</v>
-      </c>
-      <c r="L35" s="58">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="M35" s="59">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="N35" s="58">
-        <v>0.309</v>
-      </c>
-      <c r="O35" s="50"/>
-    </row>
-    <row r="36" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="64" t="s">
-        <v>240</v>
-      </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="50"/>
-    </row>
-    <row r="37" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="50"/>
-    </row>
-    <row r="38" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="50"/>
-    </row>
-    <row r="39" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="50"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B43" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-    </row>
-    <row r="44" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="9">
-        <v>2007</v>
-      </c>
-      <c r="C44" s="9">
-        <v>2008</v>
-      </c>
-      <c r="D44" s="9">
-        <v>2009</v>
-      </c>
-      <c r="E44" s="9">
-        <v>2010</v>
-      </c>
-      <c r="F44" s="9">
-        <v>2011</v>
-      </c>
-      <c r="G44" s="9">
-        <v>2012</v>
-      </c>
-      <c r="H44" s="9">
-        <v>2013</v>
-      </c>
-      <c r="I44" s="9">
-        <v>2014</v>
-      </c>
-      <c r="J44" s="9">
-        <v>2015</v>
-      </c>
-      <c r="K44" s="9">
-        <v>2016</v>
-      </c>
-      <c r="L44" s="9">
-        <v>2017</v>
-      </c>
-      <c r="M44" s="9">
-        <v>2018</v>
-      </c>
-      <c r="N44" s="9">
-        <v>2019</v>
-      </c>
-      <c r="O44" s="66">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>150</v>
-      </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="I45" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="J45" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="K45" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="L45" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="M45" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="N45" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="O45" s="74"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="74"/>
-    </row>
-    <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="74"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="74"/>
-    </row>
-    <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>199</v>
-      </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="I47" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="J47" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="K47" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="L47" s="74" t="s">
-        <v>243</v>
-      </c>
-      <c r="M47" s="74" t="s">
-        <v>243</v>
-      </c>
-      <c r="N47" s="74" t="s">
-        <v>243</v>
-      </c>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-    </row>
-    <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="74"/>
-    </row>
-    <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" s="74"/>
-      <c r="I49" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="J49" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="K49" s="75" t="s">
-        <v>248</v>
-      </c>
-      <c r="L49" s="75" t="s">
-        <v>249</v>
-      </c>
-      <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="74"/>
-      <c r="P49" s="75" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q49" s="74"/>
-    </row>
-    <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="74"/>
-      <c r="P50" s="74"/>
-      <c r="Q50" s="74"/>
-    </row>
-    <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>240</v>
-      </c>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="74"/>
-      <c r="P51" s="74"/>
-      <c r="Q51" s="74"/>
-    </row>
-    <row r="55" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="69"/>
-      <c r="O55" s="69"/>
-    </row>
-    <row r="56" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="9">
-        <v>2007</v>
-      </c>
-      <c r="C56" s="9">
-        <v>2008</v>
-      </c>
-      <c r="D56" s="9">
-        <v>2009</v>
-      </c>
-      <c r="E56" s="9">
-        <v>2010</v>
-      </c>
-      <c r="F56" s="9">
-        <v>2011</v>
-      </c>
-      <c r="G56" s="9">
-        <v>2012</v>
-      </c>
-      <c r="H56" s="9">
-        <v>2013</v>
-      </c>
-      <c r="I56" s="9">
-        <v>2014</v>
-      </c>
-      <c r="J56" s="9">
-        <v>2015</v>
-      </c>
-      <c r="K56" s="9">
-        <v>2016</v>
-      </c>
-      <c r="L56" s="9">
-        <v>2017</v>
-      </c>
-      <c r="M56" s="9">
-        <v>2018</v>
-      </c>
-      <c r="N56" s="9">
-        <v>2019</v>
-      </c>
-      <c r="O56" s="15">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="61"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="61"/>
-      <c r="N57" s="61"/>
-      <c r="O57" s="62"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="L58" s="49">
-        <v>0.33850000000000002</v>
-      </c>
-      <c r="P58" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="L59" s="49">
-        <v>0.1482</v>
-      </c>
-      <c r="P59" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="L60" s="49">
-        <v>0.14030000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="L61" s="49">
-        <v>5.9299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="L62" s="49">
-        <v>5.4800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="L63" s="49">
-        <v>4.4699999999999997E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="B65" s="5">
-        <v>2015</v>
-      </c>
-      <c r="D65" t="s">
-        <v>226</v>
-      </c>
-      <c r="F65" s="5">
-        <v>2016</v>
-      </c>
-      <c r="H65" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="64"/>
-      <c r="B66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" t="s">
-        <v>71</v>
-      </c>
-      <c r="E66" t="s">
-        <v>72</v>
-      </c>
-      <c r="F66" t="s">
-        <v>71</v>
-      </c>
-      <c r="G66" t="s">
-        <v>72</v>
-      </c>
-      <c r="H66" t="s">
-        <v>71</v>
-      </c>
-      <c r="I66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="B67">
-        <v>6894</v>
-      </c>
-      <c r="C67">
-        <v>5852</v>
-      </c>
-      <c r="D67" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="E67" s="49">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="F67">
-        <v>8291</v>
-      </c>
-      <c r="G67">
-        <v>7472</v>
-      </c>
-      <c r="H67" s="49">
-        <v>2.52E-2</v>
-      </c>
-      <c r="I67" s="49">
-        <v>1.2699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="B68">
-        <v>199</v>
-      </c>
-      <c r="C68">
-        <v>416</v>
-      </c>
-      <c r="D68" s="49">
-        <v>0.14849999999999999</v>
-      </c>
-      <c r="E68" s="49">
-        <v>8.2799999999999999E-2</v>
-      </c>
-      <c r="F68">
-        <v>181</v>
-      </c>
-      <c r="G68">
-        <v>353</v>
-      </c>
-      <c r="H68" s="49">
-        <v>0.1178</v>
-      </c>
-      <c r="I68" s="49">
-        <v>6.6900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="B69">
-        <v>13</v>
-      </c>
-      <c r="C69">
-        <v>43</v>
-      </c>
-      <c r="D69" s="49">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="E69" s="49">
-        <v>1.17E-2</v>
-      </c>
-      <c r="F69">
-        <v>10</v>
-      </c>
-      <c r="G69">
-        <v>26</v>
-      </c>
-      <c r="H69" s="49">
-        <v>1.89E-2</v>
-      </c>
-      <c r="I69" s="49">
-        <v>8.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="B70">
-        <v>7</v>
-      </c>
-      <c r="C70">
-        <v>18</v>
-      </c>
-      <c r="D70" s="49">
-        <v>0</v>
-      </c>
-      <c r="E70" s="49">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="F70">
-        <v>12</v>
-      </c>
-      <c r="G70">
-        <v>17</v>
-      </c>
-      <c r="H70" s="49">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="I70" s="49">
-        <v>7.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="B71">
-        <v>16</v>
-      </c>
-      <c r="C71">
-        <v>50</v>
-      </c>
-      <c r="D71" s="49">
-        <v>2.52E-2</v>
-      </c>
-      <c r="E71" s="49">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="F71">
-        <v>19</v>
-      </c>
-      <c r="G71">
-        <v>39</v>
-      </c>
-      <c r="H71" s="49">
-        <v>2.29E-2</v>
-      </c>
-      <c r="I71" s="49">
-        <v>9.2999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="B72">
-        <v>81</v>
-      </c>
-      <c r="C72">
-        <v>191</v>
-      </c>
-      <c r="D72" s="49">
-        <v>7.9899999999999999E-2</v>
-      </c>
-      <c r="E72" s="49">
-        <v>5.7099999999999998E-2</v>
-      </c>
-      <c r="F72">
-        <v>100</v>
-      </c>
-      <c r="G72">
-        <v>162</v>
-      </c>
-      <c r="H72" s="49">
-        <v>8.14E-2</v>
-      </c>
-      <c r="I72" s="49">
-        <v>4.58E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="B73">
-        <v>10</v>
-      </c>
-      <c r="C73">
-        <v>13</v>
-      </c>
-      <c r="D73" s="49">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="E73" s="49">
-        <v>6.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="B74">
-        <v>24</v>
-      </c>
-      <c r="C74">
-        <v>83</v>
-      </c>
-      <c r="D74" s="49">
-        <v>2.76E-2</v>
-      </c>
-      <c r="E74" s="49">
-        <v>2.87E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="B75">
-        <v>34</v>
-      </c>
-      <c r="C75">
-        <v>85</v>
-      </c>
-      <c r="D75" s="49">
-        <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="E75" s="49">
-        <v>3.1200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="F76">
-        <v>82</v>
-      </c>
-      <c r="G76">
-        <v>182</v>
-      </c>
-      <c r="H76" s="49">
-        <v>0.1065</v>
-      </c>
-      <c r="I76" s="49">
-        <v>7.6600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="F77">
-        <v>43</v>
-      </c>
-      <c r="G77">
-        <v>120</v>
-      </c>
-      <c r="H77" s="49">
-        <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="I77" s="49">
-        <v>4.8099999999999997E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="F78">
-        <v>41</v>
-      </c>
-      <c r="G78">
-        <v>54</v>
-      </c>
-      <c r="H78" s="49">
-        <v>4.6100000000000002E-2</v>
-      </c>
-      <c r="I78" s="49">
-        <v>2.3900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="B79">
-        <v>223</v>
-      </c>
-      <c r="C79">
-        <v>787</v>
-      </c>
-      <c r="D79" s="49">
-        <v>0.26989999999999997</v>
-      </c>
-      <c r="E79" s="49">
-        <v>0.36880000000000002</v>
-      </c>
-      <c r="F79">
-        <v>186</v>
-      </c>
-      <c r="G79">
-        <v>655</v>
-      </c>
-      <c r="H79" s="49">
-        <v>0.22009999999999999</v>
-      </c>
-      <c r="I79" s="49">
-        <v>0.34860000000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="B80">
-        <v>577</v>
-      </c>
-      <c r="C80">
-        <v>1807</v>
-      </c>
-      <c r="D80" s="49">
-        <v>0.36940000000000001</v>
-      </c>
-      <c r="E80" s="49">
-        <v>0.378</v>
-      </c>
-      <c r="F80">
-        <v>591</v>
-      </c>
-      <c r="G80">
-        <v>1691</v>
-      </c>
-      <c r="H80" s="49">
-        <v>0.30380000000000001</v>
-      </c>
-      <c r="I80" s="49">
-        <v>0.35160000000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D82" t="s">
-        <v>228</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B55:O55"/>
-    <mergeCell ref="B43:O43"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S201"/>
   <sheetViews>
@@ -8147,62 +9071,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
     </row>
     <row r="3" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="I3" s="69" t="s">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="I3" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="69"/>
-      <c r="L3" s="69" t="s">
+      <c r="J3" s="85"/>
+      <c r="L3" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="O3" s="69" t="s">
+      <c r="M3" s="85"/>
+      <c r="O3" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="69"/>
-      <c r="R3" s="69" t="s">
+      <c r="P3" s="85"/>
+      <c r="R3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="69"/>
+      <c r="S3" s="85"/>
     </row>
     <row r="4" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
       <c r="I4" s="7"/>
       <c r="J4" s="12" t="s">
         <v>14</v>
@@ -8530,89 +9454,89 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="B23" s="65">
+        <v>237</v>
+      </c>
+      <c r="B23" s="60">
         <v>4.87E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="65">
+        <v>231</v>
+      </c>
+      <c r="B24" s="60">
         <v>6.1699999999999998E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="B25" s="65">
+        <v>233</v>
+      </c>
+      <c r="B25" s="60">
         <v>6.88E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="B26" s="65">
+        <v>238</v>
+      </c>
+      <c r="B26" s="60">
         <v>8.3900000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="B27" s="65">
+        <v>236</v>
+      </c>
+      <c r="B27" s="60">
         <v>9.2499999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="B28" s="65">
+        <v>230</v>
+      </c>
+      <c r="B28" s="60">
         <v>0.19</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="B29" s="65">
+        <v>235</v>
+      </c>
+      <c r="B29" s="60">
         <v>0.19650000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="B30" s="65">
+        <v>228</v>
+      </c>
+      <c r="B30" s="60">
         <v>0.25509999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B31" s="65">
+        <v>234</v>
+      </c>
+      <c r="B31" s="60">
         <v>0.26219999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="B32" s="65">
+        <v>229</v>
+      </c>
+      <c r="B32" s="60">
         <v>0.27639999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="65">
+        <v>232</v>
+      </c>
+      <c r="B33" s="60">
         <v>0.55400000000000005</v>
       </c>
     </row>
@@ -8670,7 +9594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
@@ -9240,7 +10164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>

--- a/ECIG Tabs.xlsx
+++ b/ECIG Tabs.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="680" windowWidth="26040" windowHeight="14020" activeTab="1"/>
+    <workbookView xWindow="400" yWindow="680" windowWidth="26840" windowHeight="14600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Update" sheetId="11" r:id="rId1"/>
     <sheet name="What we Know" sheetId="13" r:id="rId2"/>
     <sheet name="Youth Use Trends" sheetId="2" r:id="rId3"/>
-    <sheet name="Ever Use" sheetId="3" r:id="rId4"/>
-    <sheet name="Current Use" sheetId="4" r:id="rId5"/>
-    <sheet name="8th Grade" sheetId="10" r:id="rId6"/>
-    <sheet name="10th Grade" sheetId="9" r:id="rId7"/>
-    <sheet name="12th Grade" sheetId="8" r:id="rId8"/>
-    <sheet name="Brands" sheetId="12" r:id="rId9"/>
-    <sheet name="Why use" sheetId="1" r:id="rId10"/>
-    <sheet name="R" sheetId="6" r:id="rId11"/>
-    <sheet name="Sources" sheetId="5" r:id="rId12"/>
+    <sheet name="Youth Cigarette Use Trends" sheetId="14" r:id="rId4"/>
+    <sheet name="Ever Use" sheetId="3" r:id="rId5"/>
+    <sheet name="Current Use" sheetId="4" r:id="rId6"/>
+    <sheet name="8th Grade" sheetId="10" r:id="rId7"/>
+    <sheet name="10th Grade" sheetId="9" r:id="rId8"/>
+    <sheet name="12th Grade" sheetId="8" r:id="rId9"/>
+    <sheet name="Brands" sheetId="12" r:id="rId10"/>
+    <sheet name="Why use" sheetId="1" r:id="rId11"/>
+    <sheet name="R" sheetId="6" r:id="rId12"/>
+    <sheet name="Sources" sheetId="5" r:id="rId13"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="408">
   <si>
     <t>People important to me use</t>
   </si>
@@ -1128,6 +1129,250 @@
   <si>
     <t>#X OUT W/O PRNT - During a typical week, on how many evenings do you go out for fun and recreation?</t>
   </si>
+  <si>
+    <t>C07 #X DATE 3+/WK - On the average, how often (if ever) do you go out with a date?</t>
+  </si>
+  <si>
+    <t>C07 DALY GO TO MOVIE - The next questions ask about the kinds of things you might do. How often do you do each of the following?</t>
+  </si>
+  <si>
+    <t>C07 DALY MUSIC CNCRT - How often do you do each of the following?</t>
+  </si>
+  <si>
+    <t>C07 DALY CMNTY AFFRS - Participate in community affairs or volunteer work</t>
+  </si>
+  <si>
+    <t>C07 DALY ACTV SPORTS - Actively participate in sports, athletics or exercising</t>
+  </si>
+  <si>
+    <t>C07 DALY GO TO PARTY - How often do you do each of the following?</t>
+  </si>
+  <si>
+    <t>C07 DALY VIS FRDS FR - Get together with friends informally (in your free time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C07 DALY ALONE LS/FR - Spend at least an hour of leisure time (free time) alone</t>
+  </si>
+  <si>
+    <t>C07 DALY GO TO MALL - Go to a shopping mall</t>
+  </si>
+  <si>
+    <t>C07 DALY GO VID ARC -  Go to video arcades</t>
+  </si>
+  <si>
+    <t>C07 #XUSE RADIO4NEWS - How often do you use each of the following to get information about news and current events?
+Radio</t>
+  </si>
+  <si>
+    <t>C07 #XUSE TV 4 NEWS</t>
+  </si>
+  <si>
+    <t>C07 #X USE PPR 4NEWS</t>
+  </si>
+  <si>
+    <t>C07 #X USE MAG 4NEWS</t>
+  </si>
+  <si>
+    <t>C07 #X INTERNET NEWS</t>
+  </si>
+  <si>
+    <t>C07 #HRS TV/DAY/5+ - How much TV do you estimate you watch on an average WEEKDAY?</t>
+  </si>
+  <si>
+    <t>C07 # HRS TV/WKEND -  How much TV do you estimate you watch on an average WEEKEND (both Saturday and Sunday combined)?</t>
+  </si>
+  <si>
+    <t>C07 #HRS MUSIC/DAY - How many hours do you estimate that you spend listening to music on an average DAY?</t>
+  </si>
+  <si>
+    <t>School - absenteeism/delinquency</t>
+  </si>
+  <si>
+    <t>B06 #DA/4W SC MS ILL - During the LAST FOUR WEEKS, how many whole days of school have you missed . . . because of illness?</t>
+  </si>
+  <si>
+    <t>B06 #DA/4W SC MS CUT - During the LAST FOUR WEEKS, how many whole days of school have you missed . . . because you skipped or "cut"?</t>
+  </si>
+  <si>
+    <t>B06 #DA/4W SC MS OTH - During the LAST FOUR WEEKS, how many whole days of school have you missed . . . for other reasons?</t>
+  </si>
+  <si>
+    <t>B06 #DA/4W SKP CLASS - During the LAST FOUR WEEKS, how often have you gone to school, but skipped a class when you weren't supposed
+to?</t>
+  </si>
+  <si>
+    <t>B06 #X U UNEXCSD LAT - During an average school week, about how many times . . . do you come to class late (after class has begun) without
+an approved excuse?</t>
+  </si>
+  <si>
+    <t>B07 FRQ FGT WRK/SCHL - During the LAST 12 MONTHS, how often have you . . . gotten into a serious fight in school or at work?</t>
+  </si>
+  <si>
+    <t>B07 FRQ DMG SCH PPTY - During the LAST 12 MONTHS, how often have you . . . damaged school property on purpose?</t>
+  </si>
+  <si>
+    <t>B07 EVER SUSPENDED - Have you ever been suspended or expelled from school?</t>
+  </si>
+  <si>
+    <t>B07 4WKS WEAPON@SCHL - During the LAST FOUR WEEKS, on how many days (if any) were you . . . carrying a weapon such as a gun, knife, or
+club to school?</t>
+  </si>
+  <si>
+    <t>B07 FEEL UNSAFE@SCHL - The next questions are about feeling unsafe -- that is, feeling that someone might try to harm or injure you.</t>
+  </si>
+  <si>
+    <t>B07 UNSAF TO/FRM SCH - How often do you feel unsafe going to or from school?</t>
+  </si>
+  <si>
+    <t>C01 HRS/WK PAID JOB - On the average over the school year, how many hours per week do you work in a paid job?</t>
+  </si>
+  <si>
+    <t>S01 FRQ RUN AWAY HOM - During the LAST 12 MONTHS, how
+often have you . . . run away from home (for more than 24 hours)?</t>
+  </si>
+  <si>
+    <t>S01 FRQ GANG FIGHT - During the LAST 12 MONTHS, how often have you . . . taken part in a fight where a group of your friends were
+against another group?</t>
+  </si>
+  <si>
+    <t>S01 FRQ HURT SM1 BAD - During the LAST 12 MONTHS, how often have you . . . hurt someone badly enough to need bandages or a doctor?</t>
+  </si>
+  <si>
+    <t>S01 FRQ STEAL &lt;$50 - During the LAST 12 MONTHS, how often have you . . . taken something not belonging to you worth under $50?</t>
+  </si>
+  <si>
+    <t>S01 FRQ STEAL &gt;$50 - During the LAST 12 MONTHS, how often have you . . . taken something not belonging to you worth over $50?</t>
+  </si>
+  <si>
+    <t>S01 FRQ TRESPAS BLDG - During the LAST 12 MONTHS, how often have you . . . gone into some house or building when you weren't supposed to
+be there?</t>
+  </si>
+  <si>
+    <t>S01 FRQ SELL DRUGS - During the LAST 12 MONTHS, how often have you . . . sold an illegal drug?</t>
+  </si>
+  <si>
+    <t>A11c SMKRS ENJOY LIFE - Do you agree or disagree?
+Smokers know how to enjoy life more than non-smokers</t>
+  </si>
+  <si>
+    <t>A11c PRFR DATE N-SMKR - I would prefer to date people who don't smoke</t>
+  </si>
+  <si>
+    <t>A11c HARMFUL CIG EXAG - The harmful effects of cigarettes have been exaggerated</t>
+  </si>
+  <si>
+    <t>A11c SMKR POOR JDGMNT - I think that becoming a smoker reflects poor judgment</t>
+  </si>
+  <si>
+    <t>A11c DONT MIND SMOKNG - I personally don't mind being around people who are smoking</t>
+  </si>
+  <si>
+    <t>A11c SMKG DIRTY HABIT - Smoking is a dirty habit</t>
+  </si>
+  <si>
+    <t>A11c DTEST NEAR SMKRS - I strongly dislike being near people who are smoking</t>
+  </si>
+  <si>
+    <t>Perceptions  of smoking</t>
+  </si>
+  <si>
+    <t>A08a GT HELP FR DRUGS - Have you ever received any professional counseling, treatment, or therapy because of your use of alcohol or drugs?</t>
+  </si>
+  <si>
+    <t>A06c QUIT SMK WRY FAT - Do you (or did you) worry that quitting smoking would make you gain weight?</t>
+  </si>
+  <si>
+    <t>First time incidents</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A01g GR 1ST SMOK DLY - When (if ever) did you FIRST do each of the following things? Smoke cigarettes on a daily basis.
+you to.</t>
+  </si>
+  <si>
+    <t>A01g GR 1ST SMOK EVR - Smoke your first cigarette.</t>
+  </si>
+  <si>
+    <t>A01g GR 1ST SMOKELESS - Try smokeless tobacco (snuff, plug, chewing tobacco, snus, dissolvable tobacco).</t>
+  </si>
+  <si>
+    <t>A01g GR 1ST TRY ALC - Try an alcoholic beverage -- more than just a few sips.</t>
+  </si>
+  <si>
+    <t>A01g GR 1ST TRY MJ - Try marijuana or hashish.</t>
+  </si>
+  <si>
+    <t>These questions for other hard drugs (LSD, etc.)</t>
+  </si>
+  <si>
+    <t>A10b ADS-YOU &lt;TRY DRG - To what extent do you think such commercials have . . . made you less likely to use drugs?</t>
+  </si>
+  <si>
+    <t>A10b ADS-OVRST DANGER - To what extent do you think such commercials have . . . overstated the dangers or risks of drug use?</t>
+  </si>
+  <si>
+    <t>Drug Education</t>
+  </si>
+  <si>
+    <t>A10a HAD DRUG EDUCATN -Have you had any drug education courses or lectures in school?</t>
+  </si>
+  <si>
+    <t>A10a DG ED,&gt;DG INTRST - Would you say that the information about drugs that you received in school classes or programs has . . .</t>
+  </si>
+  <si>
+    <t>A10a DG ED,SPC COURSE - How many of the following drug education experiences have you had in school? (Mark all that apply.)</t>
+  </si>
+  <si>
+    <t>A10a DG ED,IN REG CRS - How many of the following drug education experiences have you had in school? (Mark all that apply.)</t>
+  </si>
+  <si>
+    <t>A10a DG ED,NT REG CRS - How many of the following drug education experiences have you had in school? (Mark all that apply.)</t>
+  </si>
+  <si>
+    <t>A10a DG ED,SPC DISCUS - How many of the following drug education experiences have you had in school? (Mark all that apply.)</t>
+  </si>
+  <si>
+    <t>A10a DG ED,GRT VALUE - Overall, how valuable were the experiences to you?</t>
+  </si>
+  <si>
+    <t>A10a DARE EVR IN SCHL - Have you ever had the D.A.R.E. (Drug Abuse Resistance Education) program in school?</t>
+  </si>
+  <si>
+    <t>A10b ADS-YOU &lt;FAVORBL - To what extent do you think such commercials have . . . made you less favorable toward drugs?</t>
+  </si>
+  <si>
+    <t>A10b #X ANTISMK TV/RD - In recent months, about how often have you seen such anti-smoking commercials on TV, or heard them on the
+radio?</t>
+  </si>
+  <si>
+    <t>A10b #X ANTISMK PRINT - In recent months, about how often have you seen anti-smoking ads on billboards or in magazines and newspapers?</t>
+  </si>
+  <si>
+    <t>A10b ANTISMK ADS&lt;FVRB - To what extent do you think such ads on TV, radio, billboards or in magazines and newspapers have . . .</t>
+  </si>
+  <si>
+    <t>A10b ANTISMK ADS&lt;LKLY - To what extent do you think such ads on TV, radio, billboards or in magazines and newspapers have . . .</t>
+  </si>
+  <si>
+    <t>A10b ANTISMK ADS EXAG - To what extent do you think such ads on TV, radio, billboards or in magazines and newspapers have . . .</t>
+  </si>
+  <si>
+    <t>A10b #X ANTIDRUG ADS - In recent months, about how often have you seen anti-drug ads on billboards or in magazines or newspapers?</t>
+  </si>
+  <si>
+    <t>A10b CIG HLTH WARNING - In recent months, have you noticed the health warnings on cigarette packs?</t>
+  </si>
+  <si>
+    <t>A10b SMKRS IN MOVIE - Think about the movie that you watched most recently. Did any of the characters in the movie smoke cigarettes?</t>
+  </si>
+  <si>
+    <t>Percent Ever Use Cigarettes</t>
+  </si>
+  <si>
+    <t>Exact Questions, Ever Use</t>
+  </si>
+  <si>
+    <t>Have you ever smoked cigarettes?</t>
+  </si>
 </sst>
 </file>
 
@@ -1136,7 +1381,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1309,6 +1554,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1324,7 +1591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1407,8 +1674,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1419,8 +1697,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1612,6 +1894,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1637,15 +1924,19 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2010,7 +2301,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2326,11 +2616,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-312267696"/>
-        <c:axId val="-312266480"/>
+        <c:axId val="-18350896"/>
+        <c:axId val="-22681568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-312267696"/>
+        <c:axId val="-18350896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2373,7 +2663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-312266480"/>
+        <c:crossAx val="-22681568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2381,7 +2671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-312266480"/>
+        <c:axId val="-22681568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2433,7 +2723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-312267696"/>
+        <c:crossAx val="-18350896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2447,7 +2737,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2871,11 +3160,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-312226208"/>
-        <c:axId val="-312223728"/>
+        <c:axId val="-49374832"/>
+        <c:axId val="-18195744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-312226208"/>
+        <c:axId val="-49374832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2918,7 +3207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-312223728"/>
+        <c:crossAx val="-18195744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2926,7 +3215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-312223728"/>
+        <c:axId val="-18195744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2978,7 +3267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-312226208"/>
+        <c:crossAx val="-49374832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3420,11 +3709,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-336207936"/>
-        <c:axId val="-336206576"/>
+        <c:axId val="-47477952"/>
+        <c:axId val="-47476592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-336207936"/>
+        <c:axId val="-47477952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3467,7 +3756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-336206576"/>
+        <c:crossAx val="-47476592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3475,7 +3764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-336206576"/>
+        <c:axId val="-47476592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3526,7 +3815,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-336207936"/>
+        <c:crossAx val="-47477952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5909,12 +6198,90 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D55"/>
+  <dimension ref="A2:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6109,101 +6476,473 @@
         <v>329</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="B43" s="82" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>348</v>
+      </c>
+      <c r="B51" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="B54" s="82" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="B55" s="82" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="B59" s="82" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>274</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B62" t="s">
         <v>300</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C62" t="s">
         <v>300</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D62" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>304</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C63" t="s">
         <v>305</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D63" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>301</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C64" t="s">
         <v>301</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D64" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>319</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B66" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="B48" s="82" t="s">
+    <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="B68" s="82" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>387</v>
+      </c>
+      <c r="B74" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B80" s="82" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="B81" s="82" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="B85" s="82" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>375</v>
+      </c>
+      <c r="B93" s="82" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>378</v>
+      </c>
+      <c r="B100" s="82" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B105" s="83" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>219</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B106" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
         <v>309</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="B112" s="82" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="B113" s="82" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="B117" s="82" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -6215,8 +6954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U50"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="109" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView zoomScale="109" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6226,22 +6965,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
     </row>
     <row r="3" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6683,22 +7422,22 @@
       <c r="O17" s="50"/>
     </row>
     <row r="21" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
     </row>
     <row r="22" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
@@ -7301,22 +8040,22 @@
       <c r="R41" s="76"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="91" t="s">
         <v>239</v>
       </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="86"/>
-      <c r="O42" s="86"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="91"/>
+      <c r="M42" s="91"/>
+      <c r="N42" s="91"/>
+      <c r="O42" s="91"/>
     </row>
     <row r="43" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
@@ -7374,21 +8113,21 @@
       <c r="C44" s="50"/>
       <c r="D44" s="50"/>
       <c r="E44" s="50"/>
-      <c r="F44" s="87" t="s">
+      <c r="F44" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="G44" s="87"/>
+      <c r="G44" s="92"/>
       <c r="H44" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="I44" s="87" t="s">
+      <c r="I44" s="92" t="s">
         <v>241</v>
       </c>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="92"/>
+      <c r="L44" s="92"/>
+      <c r="M44" s="92"/>
+      <c r="N44" s="92"/>
       <c r="O44" s="64"/>
       <c r="P44" s="62"/>
       <c r="Q44" s="80"/>
@@ -7421,16 +8160,16 @@
       <c r="E46" s="50"/>
       <c r="F46" s="50"/>
       <c r="G46" s="50"/>
-      <c r="I46" s="84" t="s">
+      <c r="I46" s="89" t="s">
         <v>240</v>
       </c>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="83" t="s">
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="88" t="s">
         <v>317</v>
       </c>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="88"/>
       <c r="O46" s="64"/>
       <c r="P46" s="62"/>
       <c r="Q46" s="62"/>
@@ -7452,15 +8191,15 @@
         <v>34</v>
       </c>
       <c r="H48" s="64"/>
-      <c r="I48" s="84" t="s">
+      <c r="I48" s="89" t="s">
         <v>243</v>
       </c>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84" t="s">
+      <c r="J48" s="89"/>
+      <c r="K48" s="89" t="s">
         <v>246</v>
       </c>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="89"/>
       <c r="N48" s="64"/>
       <c r="O48" s="64"/>
       <c r="P48" s="63"/>
@@ -7508,6 +8247,627 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Y24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="90" t="s">
+        <v>405</v>
+      </c>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+    </row>
+    <row r="3" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="84">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="84">
+        <v>2001</v>
+      </c>
+      <c r="D3" s="84">
+        <v>2002</v>
+      </c>
+      <c r="E3" s="84">
+        <v>2003</v>
+      </c>
+      <c r="F3" s="84">
+        <v>2004</v>
+      </c>
+      <c r="G3" s="84">
+        <v>2005</v>
+      </c>
+      <c r="H3" s="84">
+        <v>2006</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2007</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2008</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2009</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2010</v>
+      </c>
+      <c r="M3" s="9">
+        <v>2011</v>
+      </c>
+      <c r="N3" s="9">
+        <v>2012</v>
+      </c>
+      <c r="O3" s="9">
+        <v>2013</v>
+      </c>
+      <c r="P3" s="9">
+        <v>2014</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>2015</v>
+      </c>
+      <c r="R3" s="9">
+        <v>2016</v>
+      </c>
+      <c r="S3" s="9">
+        <v>2017</v>
+      </c>
+      <c r="T3" s="9">
+        <v>2018</v>
+      </c>
+      <c r="U3" s="9">
+        <v>2019</v>
+      </c>
+      <c r="V3" s="15">
+        <v>2020</v>
+      </c>
+      <c r="X3" s="86"/>
+    </row>
+    <row r="4" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="X4" s="86"/>
+    </row>
+    <row r="5" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="87">
+        <v>0.40669070000000002</v>
+      </c>
+      <c r="C5" s="87">
+        <v>0.3573035</v>
+      </c>
+      <c r="D5" s="87">
+        <v>0.30465880000000001</v>
+      </c>
+      <c r="E5" s="87">
+        <v>0.29116649999999999</v>
+      </c>
+      <c r="F5" s="87">
+        <v>0.27336949999999999</v>
+      </c>
+      <c r="G5" s="87">
+        <v>0.26444960000000001</v>
+      </c>
+      <c r="H5" s="87">
+        <v>0.24540989999999999</v>
+      </c>
+      <c r="I5" s="87">
+        <v>0.2104414</v>
+      </c>
+      <c r="J5" s="87">
+        <v>0.20268340000000001</v>
+      </c>
+      <c r="K5" s="87">
+        <v>0.2058634</v>
+      </c>
+      <c r="L5" s="87">
+        <v>0.2029369</v>
+      </c>
+      <c r="M5" s="87">
+        <v>0.1813826</v>
+      </c>
+      <c r="N5" s="87">
+        <v>0.1562779</v>
+      </c>
+      <c r="O5" s="87">
+        <v>0.1469134</v>
+      </c>
+      <c r="P5" s="87">
+        <v>0.13502819999999999</v>
+      </c>
+      <c r="Q5" s="87">
+        <v>0.1330694</v>
+      </c>
+      <c r="R5" s="87">
+        <v>9.8739140000000003E-2</v>
+      </c>
+      <c r="S5" s="87">
+        <v>9.4526079999999998E-2</v>
+      </c>
+      <c r="T5" s="87">
+        <v>9.0796000000000002E-2</v>
+      </c>
+      <c r="U5" s="87">
+        <v>9.4120629999999997E-2</v>
+      </c>
+      <c r="V5" s="50"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+    </row>
+    <row r="6" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="87">
+        <v>0.54894750000000003</v>
+      </c>
+      <c r="C6" s="87">
+        <v>0.54070390000000002</v>
+      </c>
+      <c r="D6" s="87">
+        <v>0.46689710000000001</v>
+      </c>
+      <c r="E6" s="87">
+        <v>0.42292239999999998</v>
+      </c>
+      <c r="F6" s="87">
+        <v>0.41346490000000002</v>
+      </c>
+      <c r="G6" s="87">
+        <v>0.38869480000000001</v>
+      </c>
+      <c r="H6" s="87">
+        <v>0.35503279999999998</v>
+      </c>
+      <c r="I6" s="87">
+        <v>0.34471109999999999</v>
+      </c>
+      <c r="J6" s="87">
+        <v>0.32333580000000001</v>
+      </c>
+      <c r="K6" s="87">
+        <v>0.33875090000000002</v>
+      </c>
+      <c r="L6" s="87">
+        <v>0.32673489999999999</v>
+      </c>
+      <c r="M6" s="87">
+        <v>0.30574649999999998</v>
+      </c>
+      <c r="N6" s="87">
+        <v>0.2769317</v>
+      </c>
+      <c r="O6" s="87">
+        <v>0.257683</v>
+      </c>
+      <c r="P6" s="87">
+        <v>0.2243018</v>
+      </c>
+      <c r="Q6" s="87">
+        <v>0.19975999999999999</v>
+      </c>
+      <c r="R6" s="87">
+        <v>0.17515890000000001</v>
+      </c>
+      <c r="S6" s="87">
+        <v>0.15817429999999999</v>
+      </c>
+      <c r="T6" s="87">
+        <v>0.16124060000000001</v>
+      </c>
+      <c r="U6" s="87">
+        <v>0.1399019</v>
+      </c>
+      <c r="V6" s="50"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+    </row>
+    <row r="7" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+    </row>
+    <row r="8" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+    </row>
+    <row r="9" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+    </row>
+    <row r="10" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+    </row>
+    <row r="11" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+    </row>
+    <row r="12" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2002</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2003</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2004</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2005</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2006</v>
+      </c>
+      <c r="I12" s="9">
+        <v>2007</v>
+      </c>
+      <c r="J12" s="9">
+        <v>2008</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2009</v>
+      </c>
+      <c r="L12" s="9">
+        <v>2010</v>
+      </c>
+      <c r="M12" s="9">
+        <v>2011</v>
+      </c>
+      <c r="N12" s="9">
+        <v>2012</v>
+      </c>
+      <c r="O12" s="9">
+        <v>2013</v>
+      </c>
+      <c r="P12" s="9">
+        <v>2014</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>2015</v>
+      </c>
+      <c r="R12" s="9">
+        <v>2016</v>
+      </c>
+      <c r="S12" s="9">
+        <v>2017</v>
+      </c>
+      <c r="T12" s="9">
+        <v>2018</v>
+      </c>
+      <c r="U12" s="9">
+        <v>2019</v>
+      </c>
+      <c r="V12" s="15">
+        <v>2020</v>
+      </c>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="75"/>
+    </row>
+    <row r="13" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="76"/>
+    </row>
+    <row r="14" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="I14" s="91" t="s">
+        <v>406</v>
+      </c>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+    </row>
+    <row r="15" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="85">
+        <v>2000</v>
+      </c>
+      <c r="C15" s="85">
+        <v>2001</v>
+      </c>
+      <c r="D15" s="85">
+        <v>2002</v>
+      </c>
+      <c r="E15" s="85">
+        <v>2003</v>
+      </c>
+      <c r="F15" s="85">
+        <v>2004</v>
+      </c>
+      <c r="G15" s="85">
+        <v>2005</v>
+      </c>
+      <c r="H15" s="85">
+        <v>2006</v>
+      </c>
+      <c r="I15" s="9">
+        <v>2007</v>
+      </c>
+      <c r="J15" s="9">
+        <v>2008</v>
+      </c>
+      <c r="K15" s="9">
+        <v>2009</v>
+      </c>
+      <c r="L15" s="9">
+        <v>2010</v>
+      </c>
+      <c r="M15" s="9">
+        <v>2011</v>
+      </c>
+      <c r="N15" s="9">
+        <v>2012</v>
+      </c>
+      <c r="O15" s="9">
+        <v>2013</v>
+      </c>
+      <c r="P15" s="9">
+        <v>2014</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>2015</v>
+      </c>
+      <c r="R15" s="9">
+        <v>2016</v>
+      </c>
+      <c r="S15" s="9">
+        <v>2017</v>
+      </c>
+      <c r="T15" s="9">
+        <v>2018</v>
+      </c>
+      <c r="U15" s="9">
+        <v>2019</v>
+      </c>
+      <c r="V15" s="61">
+        <v>2020</v>
+      </c>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+    </row>
+    <row r="16" spans="1:25" ht="47" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="92" t="s">
+        <v>407</v>
+      </c>
+      <c r="N16" s="92"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="86"/>
+    </row>
+    <row r="17" spans="2:24" ht="17" x14ac:dyDescent="0.25">
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+    </row>
+    <row r="18" spans="2:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="86"/>
+    </row>
+    <row r="19" spans="2:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+    </row>
+    <row r="20" spans="2:24" ht="17" x14ac:dyDescent="0.25">
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+    </row>
+    <row r="21" spans="2:24" ht="17" x14ac:dyDescent="0.25">
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+    </row>
+    <row r="22" spans="2:24" ht="17" x14ac:dyDescent="0.25">
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+    </row>
+    <row r="23" spans="2:24" ht="17" x14ac:dyDescent="0.25">
+      <c r="W23" s="86"/>
+    </row>
+    <row r="24" spans="2:24" ht="17" x14ac:dyDescent="0.25">
+      <c r="W24" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="P16:U16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I2:V2"/>
+    <mergeCell ref="I11:V11"/>
+    <mergeCell ref="I14:V14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
@@ -8014,7 +9374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
@@ -8427,7 +9787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
@@ -8441,22 +9801,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
     </row>
     <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -9047,7 +10407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S201"/>
   <sheetViews>
@@ -9071,62 +10431,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
     </row>
     <row r="3" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="I3" s="85" t="s">
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="I3" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="85"/>
-      <c r="L3" s="85" t="s">
+      <c r="J3" s="90"/>
+      <c r="L3" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="O3" s="85" t="s">
+      <c r="M3" s="90"/>
+      <c r="O3" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="85"/>
-      <c r="R3" s="85" t="s">
+      <c r="P3" s="90"/>
+      <c r="R3" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="90"/>
     </row>
     <row r="4" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
       <c r="I4" s="7"/>
       <c r="J4" s="12" t="s">
         <v>14</v>
@@ -9594,7 +10954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
@@ -10162,82 +11522,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ECIG Tabs.xlsx
+++ b/ECIG Tabs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="680" windowWidth="26840" windowHeight="14600" activeTab="3"/>
+    <workbookView xWindow="7920" yWindow="-17180" windowWidth="26840" windowHeight="14600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Update" sheetId="11" r:id="rId1"/>
@@ -1686,9 +1686,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1924,19 +1932,27 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="22">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2616,11 +2632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-18350896"/>
-        <c:axId val="-22681568"/>
+        <c:axId val="23788896"/>
+        <c:axId val="123358240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-18350896"/>
+        <c:axId val="23788896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2663,7 +2679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-22681568"/>
+        <c:crossAx val="123358240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2671,7 +2687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-22681568"/>
+        <c:axId val="123358240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2723,7 +2739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-18350896"/>
+        <c:crossAx val="23788896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3160,11 +3176,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-49374832"/>
-        <c:axId val="-18195744"/>
+        <c:axId val="123342336"/>
+        <c:axId val="123381344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-49374832"/>
+        <c:axId val="123342336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3207,7 +3223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-18195744"/>
+        <c:crossAx val="123381344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3215,7 +3231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-18195744"/>
+        <c:axId val="123381344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -3267,7 +3283,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-49374832"/>
+        <c:crossAx val="123342336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3709,11 +3725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-47477952"/>
-        <c:axId val="-47476592"/>
+        <c:axId val="23869520"/>
+        <c:axId val="23873824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-47477952"/>
+        <c:axId val="23869520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3756,7 +3772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-47476592"/>
+        <c:crossAx val="23873824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3764,7 +3780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-47476592"/>
+        <c:axId val="23873824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3815,7 +3831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-47477952"/>
+        <c:crossAx val="23869520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5579,7 +5595,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5628,7 +5644,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5667,7 +5683,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B935D8BE-90AF-45B8-8BCA-D5AE0BB04B50}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B935D8BE-90AF-45B8-8BCA-D5AE0BB04B50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5700,7 +5716,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C4D54F4-D90C-40ED-9BEC-DBB8AEA8F3F4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C4D54F4-D90C-40ED-9BEC-DBB8AEA8F3F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5733,7 +5749,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73ED1146-494E-488D-ACD1-1E1C52719B55}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73ED1146-494E-488D-ACD1-1E1C52719B55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8250,7 +8266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
@@ -8871,7 +8887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="64" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>

--- a/ECIG Tabs.xlsx
+++ b/ECIG Tabs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="-17180" windowWidth="26840" windowHeight="14600" activeTab="4"/>
+    <workbookView xWindow="1100" yWindow="2240" windowWidth="26840" windowHeight="14600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Update" sheetId="11" r:id="rId1"/>
@@ -2632,11 +2632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="23788896"/>
-        <c:axId val="123358240"/>
+        <c:axId val="-600037536"/>
+        <c:axId val="-600035904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="23788896"/>
+        <c:axId val="-600037536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2679,7 +2679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123358240"/>
+        <c:crossAx val="-600035904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2687,7 +2687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123358240"/>
+        <c:axId val="-600035904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2739,7 +2739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23788896"/>
+        <c:crossAx val="-600037536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3176,11 +3176,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123342336"/>
-        <c:axId val="123381344"/>
+        <c:axId val="-596574080"/>
+        <c:axId val="-596571600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123342336"/>
+        <c:axId val="-596574080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,7 +3223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123381344"/>
+        <c:crossAx val="-596571600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3231,7 +3231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123381344"/>
+        <c:axId val="-596571600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -3283,7 +3283,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123342336"/>
+        <c:crossAx val="-596574080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3725,11 +3725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="23869520"/>
-        <c:axId val="23873824"/>
+        <c:axId val="-597590272"/>
+        <c:axId val="-597588480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="23869520"/>
+        <c:axId val="-597590272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3772,7 +3772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23873824"/>
+        <c:crossAx val="-597588480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3780,7 +3780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23873824"/>
+        <c:axId val="-597588480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3831,7 +3831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23869520"/>
+        <c:crossAx val="-597590272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5595,7 +5595,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5644,7 +5644,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5683,7 +5683,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B935D8BE-90AF-45B8-8BCA-D5AE0BB04B50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B935D8BE-90AF-45B8-8BCA-D5AE0BB04B50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5716,7 +5716,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C4D54F4-D90C-40ED-9BEC-DBB8AEA8F3F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C4D54F4-D90C-40ED-9BEC-DBB8AEA8F3F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5749,7 +5749,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73ED1146-494E-488D-ACD1-1E1C52719B55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73ED1146-494E-488D-ACD1-1E1C52719B55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6970,8 +6970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U50"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="109" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8887,7 +8887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="64" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="64" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
